--- a/biology/Zoologie/Barisia_ciliaris/Barisia_ciliaris.xlsx
+++ b/biology/Zoologie/Barisia_ciliaris/Barisia_ciliaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barisia ciliaris est une espèce de sauriens de la famille des Anguidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barisia ciliaris est une espèce de sauriens de la famille des Anguidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1]. Elle se rencontre au Chihuahua, au Sinaloa, au Durango, au Coahuila, au Nuevo León, au San Luis Potosí, au Zacatecas, au Guanajuato et en Hidalgo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre au Chihuahua, au Sinaloa, au Durango, au Coahuila, au Nuevo León, au San Luis Potosí, au Zacatecas, au Guanajuato et en Hidalgo.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Smith, 1942 : Mexican herpetological miscellany. Proceedings of the United States National Museum, vol. 92, p. 349-395 (texte intégral).</t>
         </is>
